--- a/sputnik/personal/uch/uch203.xlsx
+++ b/sputnik/personal/uch/uch203.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -45,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,10 +167,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,10 +264,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -475,17 +473,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -494,8 +492,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -509,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -521,7 +519,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="12">
         <v>43377</v>
       </c>
@@ -533,7 +531,7 @@
         <v>8869.49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="13">
         <v>43586</v>
       </c>
@@ -545,7 +543,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="12">
         <v>43739</v>
       </c>
@@ -557,7 +555,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="12">
         <v>43759</v>
       </c>
@@ -569,29 +567,29 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
@@ -603,12 +601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,12 +615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch203.xlsx
+++ b/sputnik/personal/uch/uch203.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,13 +40,16 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2019 по 30.04.2020</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -172,6 +175,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -232,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -473,17 +479,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -492,8 +498,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -507,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -519,7 +525,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43377</v>
       </c>
@@ -531,7 +537,7 @@
         <v>8869.49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>43586</v>
       </c>
@@ -543,7 +549,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43739</v>
       </c>
@@ -555,7 +561,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43759</v>
       </c>
@@ -567,29 +573,35 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9837.5</v>
+      </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
@@ -601,12 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,12 +627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch203.xlsx
+++ b/sputnik/personal/uch/uch203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата за пользование инфраструктурой с 01.05.2020 по 30.04.2021</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,11 +143,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,6 +190,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,7 +503,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,8 +603,16 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="15">
+        <v>44105</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
+        <v>9837.5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>

--- a/sputnik/personal/uch/uch203.xlsx
+++ b/sputnik/personal/uch/uch203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2020 по 30.04.2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -143,22 +146,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,7 +174,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -190,9 +181,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="A9" sqref="A9:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,7 +519,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -543,7 +531,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43377</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -555,7 +543,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43586</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -567,7 +555,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43739</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -579,7 +567,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43759</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -591,7 +579,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43952</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -603,32 +591,82 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>44105</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>9837.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10490.71</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch203.xlsx
+++ b/sputnik/personal/uch/uch203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,10 +618,16 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="13">
+        <v>44470</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10">
+        <v>10490.71</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
